--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Rgma-Neo1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Rgma-Neo1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.01983205385841</v>
+        <v>2.041421333333334</v>
       </c>
       <c r="H2">
-        <v>2.01983205385841</v>
+        <v>6.124264</v>
       </c>
       <c r="I2">
-        <v>0.03094604685096533</v>
+        <v>0.03013244547937793</v>
       </c>
       <c r="J2">
-        <v>0.03094604685096533</v>
+        <v>0.03013244547937793</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.42648457394279</v>
+        <v>2.373057666666667</v>
       </c>
       <c r="N2">
-        <v>1.42648457394279</v>
+        <v>7.119173</v>
       </c>
       <c r="O2">
-        <v>0.02259422925548114</v>
+        <v>0.03663411841135517</v>
       </c>
       <c r="P2">
-        <v>0.02259422925548114</v>
+        <v>0.03663411841135517</v>
       </c>
       <c r="Q2">
-        <v>2.881259266784204</v>
+        <v>4.844410545963556</v>
       </c>
       <c r="R2">
-        <v>2.881259266784204</v>
+        <v>43.599694913672</v>
       </c>
       <c r="S2">
-        <v>0.0006992020771015708</v>
+        <v>0.001103875575715235</v>
       </c>
       <c r="T2">
-        <v>0.0006992020771015708</v>
+        <v>0.001103875575715235</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.01983205385841</v>
+        <v>2.041421333333334</v>
       </c>
       <c r="H3">
-        <v>2.01983205385841</v>
+        <v>6.124264</v>
       </c>
       <c r="I3">
-        <v>0.03094604685096533</v>
+        <v>0.03013244547937793</v>
       </c>
       <c r="J3">
-        <v>0.03094604685096533</v>
+        <v>0.03013244547937793</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>43.1162175125875</v>
+        <v>43.26393666666667</v>
       </c>
       <c r="N3">
-        <v>43.1162175125875</v>
+        <v>129.79181</v>
       </c>
       <c r="O3">
-        <v>0.6829220034367245</v>
+        <v>0.6678877639810287</v>
       </c>
       <c r="P3">
-        <v>0.6829220034367245</v>
+        <v>0.6678877639810287</v>
       </c>
       <c r="Q3">
-        <v>87.08751817305554</v>
+        <v>88.31992327531556</v>
       </c>
       <c r="R3">
-        <v>87.08751817305554</v>
+        <v>794.87930947784</v>
       </c>
       <c r="S3">
-        <v>0.02113373631390798</v>
+        <v>0.02012509163450198</v>
       </c>
       <c r="T3">
-        <v>0.02113373631390798</v>
+        <v>0.02012509163450198</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.01983205385841</v>
+        <v>2.041421333333334</v>
       </c>
       <c r="H4">
-        <v>2.01983205385841</v>
+        <v>6.124264</v>
       </c>
       <c r="I4">
-        <v>0.03094604685096533</v>
+        <v>0.03013244547937793</v>
       </c>
       <c r="J4">
-        <v>0.03094604685096533</v>
+        <v>0.03013244547937793</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.419572022909791</v>
+        <v>0.4664283333333333</v>
       </c>
       <c r="N4">
-        <v>0.419572022909791</v>
+        <v>1.399285</v>
       </c>
       <c r="O4">
-        <v>0.006645642475198613</v>
+        <v>0.007200495391983466</v>
       </c>
       <c r="P4">
-        <v>0.006645642475198613</v>
+        <v>0.007200495391983466</v>
       </c>
       <c r="Q4">
-        <v>0.847465020775411</v>
+        <v>0.9521767501377778</v>
       </c>
       <c r="R4">
-        <v>0.847465020775411</v>
+        <v>8.56959075124</v>
       </c>
       <c r="S4">
-        <v>0.0002056563633922615</v>
+        <v>0.0002169685348234538</v>
       </c>
       <c r="T4">
-        <v>0.0002056563633922615</v>
+        <v>0.0002169685348234538</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.01983205385841</v>
+        <v>2.041421333333334</v>
       </c>
       <c r="H5">
-        <v>2.01983205385841</v>
+        <v>6.124264</v>
       </c>
       <c r="I5">
-        <v>0.03094604685096533</v>
+        <v>0.03013244547937793</v>
       </c>
       <c r="J5">
-        <v>0.03094604685096533</v>
+        <v>0.03013244547937793</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.1726333845493</v>
+        <v>18.67383333333333</v>
       </c>
       <c r="N5">
-        <v>18.1726333845493</v>
+        <v>56.0215</v>
       </c>
       <c r="O5">
-        <v>0.2878381248325958</v>
+        <v>0.2882776222156329</v>
       </c>
       <c r="P5">
-        <v>0.2878381248325958</v>
+        <v>0.2882776222156329</v>
       </c>
       <c r="Q5">
-        <v>36.70566741313012</v>
+        <v>38.12116174177778</v>
       </c>
       <c r="R5">
-        <v>36.70566741313012</v>
+        <v>343.090455676</v>
       </c>
       <c r="S5">
-        <v>0.008907452096563517</v>
+        <v>0.008686509734337265</v>
       </c>
       <c r="T5">
-        <v>0.008907452096563517</v>
+        <v>0.008686509734337265</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>34.0179799622212</v>
+        <v>34.65832566666667</v>
       </c>
       <c r="H6">
-        <v>34.0179799622212</v>
+        <v>103.974977</v>
       </c>
       <c r="I6">
-        <v>0.521192838619984</v>
+        <v>0.5115749950805638</v>
       </c>
       <c r="J6">
-        <v>0.521192838619984</v>
+        <v>0.5115749950805639</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.42648457394279</v>
+        <v>2.373057666666667</v>
       </c>
       <c r="N6">
-        <v>1.42648457394279</v>
+        <v>7.119173</v>
       </c>
       <c r="O6">
-        <v>0.02259422925548114</v>
+        <v>0.03663411841135517</v>
       </c>
       <c r="P6">
-        <v>0.02259422925548114</v>
+        <v>0.03663411841135517</v>
       </c>
       <c r="Q6">
-        <v>48.52612365280348</v>
+        <v>82.24620543711345</v>
       </c>
       <c r="R6">
-        <v>48.52612365280348</v>
+        <v>740.2158489340211</v>
       </c>
       <c r="S6">
-        <v>0.0117759504820949</v>
+        <v>0.01874109894606981</v>
       </c>
       <c r="T6">
-        <v>0.0117759504820949</v>
+        <v>0.01874109894606981</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>34.0179799622212</v>
+        <v>34.65832566666667</v>
       </c>
       <c r="H7">
-        <v>34.0179799622212</v>
+        <v>103.974977</v>
       </c>
       <c r="I7">
-        <v>0.521192838619984</v>
+        <v>0.5115749950805638</v>
       </c>
       <c r="J7">
-        <v>0.521192838619984</v>
+        <v>0.5115749950805639</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>43.1162175125875</v>
+        <v>43.26393666666667</v>
       </c>
       <c r="N7">
-        <v>43.1162175125875</v>
+        <v>129.79181</v>
       </c>
       <c r="O7">
-        <v>0.6829220034367245</v>
+        <v>0.6678877639810287</v>
       </c>
       <c r="P7">
-        <v>0.6829220034367245</v>
+        <v>0.6678877639810287</v>
       </c>
       <c r="Q7">
-        <v>1466.726623389972</v>
+        <v>1499.455606615375</v>
       </c>
       <c r="R7">
-        <v>1466.726623389972</v>
+        <v>13495.10045953837</v>
       </c>
       <c r="S7">
-        <v>0.3559340575272329</v>
+        <v>0.3416746795729635</v>
       </c>
       <c r="T7">
-        <v>0.3559340575272329</v>
+        <v>0.3416746795729636</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>34.0179799622212</v>
+        <v>34.65832566666667</v>
       </c>
       <c r="H8">
-        <v>34.0179799622212</v>
+        <v>103.974977</v>
       </c>
       <c r="I8">
-        <v>0.521192838619984</v>
+        <v>0.5115749950805638</v>
       </c>
       <c r="J8">
-        <v>0.521192838619984</v>
+        <v>0.5115749950805639</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.419572022909791</v>
+        <v>0.4664283333333333</v>
       </c>
       <c r="N8">
-        <v>0.419572022909791</v>
+        <v>1.399285</v>
       </c>
       <c r="O8">
-        <v>0.006645642475198613</v>
+        <v>0.007200495391983466</v>
       </c>
       <c r="P8">
-        <v>0.006645642475198613</v>
+        <v>0.007200495391983466</v>
       </c>
       <c r="Q8">
-        <v>14.27299266805388</v>
+        <v>16.16562507682722</v>
       </c>
       <c r="R8">
-        <v>14.27299266805388</v>
+        <v>145.490625691445</v>
       </c>
       <c r="S8">
-        <v>0.003463661266102302</v>
+        <v>0.003683593394731564</v>
       </c>
       <c r="T8">
-        <v>0.003463661266102302</v>
+        <v>0.003683593394731565</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>34.0179799622212</v>
+        <v>34.65832566666667</v>
       </c>
       <c r="H9">
-        <v>34.0179799622212</v>
+        <v>103.974977</v>
       </c>
       <c r="I9">
-        <v>0.521192838619984</v>
+        <v>0.5115749950805638</v>
       </c>
       <c r="J9">
-        <v>0.521192838619984</v>
+        <v>0.5115749950805639</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.1726333845493</v>
+        <v>18.67383333333333</v>
       </c>
       <c r="N9">
-        <v>18.1726333845493</v>
+        <v>56.0215</v>
       </c>
       <c r="O9">
-        <v>0.2878381248325958</v>
+        <v>0.2882776222156329</v>
       </c>
       <c r="P9">
-        <v>0.2878381248325958</v>
+        <v>0.2882776222156329</v>
       </c>
       <c r="Q9">
-        <v>618.19627833639</v>
+        <v>647.2037971117223</v>
       </c>
       <c r="R9">
-        <v>618.19627833639</v>
+        <v>5824.834174005501</v>
       </c>
       <c r="S9">
-        <v>0.1500191693445539</v>
+        <v>0.147475623166799</v>
       </c>
       <c r="T9">
-        <v>0.1500191693445539</v>
+        <v>0.147475623166799</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.304046186956781</v>
+        <v>0.322237</v>
       </c>
       <c r="H10">
-        <v>0.304046186956781</v>
+        <v>0.966711</v>
       </c>
       <c r="I10">
-        <v>0.004658321729496368</v>
+        <v>0.004756386482002558</v>
       </c>
       <c r="J10">
-        <v>0.004658321729496368</v>
+        <v>0.004756386482002558</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.42648457394279</v>
+        <v>2.373057666666667</v>
       </c>
       <c r="N10">
-        <v>1.42648457394279</v>
+        <v>7.119173</v>
       </c>
       <c r="O10">
-        <v>0.02259422925548114</v>
+        <v>0.03663411841135517</v>
       </c>
       <c r="P10">
-        <v>0.02259422925548114</v>
+        <v>0.03663411841135517</v>
       </c>
       <c r="Q10">
-        <v>0.4337171954599736</v>
+        <v>0.7646869833336666</v>
       </c>
       <c r="R10">
-        <v>0.4337171954599736</v>
+        <v>6.882182850003</v>
       </c>
       <c r="S10">
-        <v>0.0001052511891020303</v>
+        <v>0.0001742460255918507</v>
       </c>
       <c r="T10">
-        <v>0.0001052511891020303</v>
+        <v>0.0001742460255918507</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.304046186956781</v>
+        <v>0.322237</v>
       </c>
       <c r="H11">
-        <v>0.304046186956781</v>
+        <v>0.966711</v>
       </c>
       <c r="I11">
-        <v>0.004658321729496368</v>
+        <v>0.004756386482002558</v>
       </c>
       <c r="J11">
-        <v>0.004658321729496368</v>
+        <v>0.004756386482002558</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>43.1162175125875</v>
+        <v>43.26393666666667</v>
       </c>
       <c r="N11">
-        <v>43.1162175125875</v>
+        <v>129.79181</v>
       </c>
       <c r="O11">
-        <v>0.6829220034367245</v>
+        <v>0.6678877639810287</v>
       </c>
       <c r="P11">
-        <v>0.6829220034367245</v>
+        <v>0.6678877639810287</v>
       </c>
       <c r="Q11">
-        <v>13.10932153070141</v>
+        <v>13.94124115965667</v>
       </c>
       <c r="R11">
-        <v>13.10932153070141</v>
+        <v>125.47117043691</v>
       </c>
       <c r="S11">
-        <v>0.003181270408160487</v>
+        <v>0.00317673233209428</v>
       </c>
       <c r="T11">
-        <v>0.003181270408160487</v>
+        <v>0.00317673233209428</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.304046186956781</v>
+        <v>0.322237</v>
       </c>
       <c r="H12">
-        <v>0.304046186956781</v>
+        <v>0.966711</v>
       </c>
       <c r="I12">
-        <v>0.004658321729496368</v>
+        <v>0.004756386482002558</v>
       </c>
       <c r="J12">
-        <v>0.004658321729496368</v>
+        <v>0.004756386482002558</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.419572022909791</v>
+        <v>0.4664283333333333</v>
       </c>
       <c r="N12">
-        <v>0.419572022909791</v>
+        <v>1.399285</v>
       </c>
       <c r="O12">
-        <v>0.006645642475198613</v>
+        <v>0.007200495391983466</v>
       </c>
       <c r="P12">
-        <v>0.006645642475198613</v>
+        <v>0.007200495391983466</v>
       </c>
       <c r="Q12">
-        <v>0.1275692737194651</v>
+        <v>0.1503004668483333</v>
       </c>
       <c r="R12">
-        <v>0.1275692737194651</v>
+        <v>1.352704201635</v>
       </c>
       <c r="S12">
-        <v>3.095754074868173E-05</v>
+        <v>3.424833894615187E-05</v>
       </c>
       <c r="T12">
-        <v>3.095754074868173E-05</v>
+        <v>3.424833894615187E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.304046186956781</v>
+        <v>0.322237</v>
       </c>
       <c r="H13">
-        <v>0.304046186956781</v>
+        <v>0.966711</v>
       </c>
       <c r="I13">
-        <v>0.004658321729496368</v>
+        <v>0.004756386482002558</v>
       </c>
       <c r="J13">
-        <v>0.004658321729496368</v>
+        <v>0.004756386482002558</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>18.1726333845493</v>
+        <v>18.67383333333333</v>
       </c>
       <c r="N13">
-        <v>18.1726333845493</v>
+        <v>56.0215</v>
       </c>
       <c r="O13">
-        <v>0.2878381248325958</v>
+        <v>0.2882776222156329</v>
       </c>
       <c r="P13">
-        <v>0.2878381248325958</v>
+        <v>0.2882776222156329</v>
       </c>
       <c r="Q13">
-        <v>5.525319887535716</v>
+        <v>6.017400031833334</v>
       </c>
       <c r="R13">
-        <v>5.525319887535716</v>
+        <v>54.1566002865</v>
       </c>
       <c r="S13">
-        <v>0.001340842591485169</v>
+        <v>0.001371159785370276</v>
       </c>
       <c r="T13">
-        <v>0.001340842591485169</v>
+        <v>0.001371159785370276</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>28.9276110634526</v>
+        <v>30.72629533333334</v>
       </c>
       <c r="H14">
-        <v>28.9276110634526</v>
+        <v>92.17888600000001</v>
       </c>
       <c r="I14">
-        <v>0.4432027927995544</v>
+        <v>0.4535361729580556</v>
       </c>
       <c r="J14">
-        <v>0.4432027927995544</v>
+        <v>0.4535361729580557</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.42648457394279</v>
+        <v>2.373057666666667</v>
       </c>
       <c r="N14">
-        <v>1.42648457394279</v>
+        <v>7.119173</v>
       </c>
       <c r="O14">
-        <v>0.02259422925548114</v>
+        <v>0.03663411841135517</v>
       </c>
       <c r="P14">
-        <v>0.02259422925548114</v>
+        <v>0.03663411841135517</v>
       </c>
       <c r="Q14">
-        <v>41.26479094303192</v>
+        <v>72.91527070903089</v>
       </c>
       <c r="R14">
-        <v>41.26479094303192</v>
+        <v>656.237436381278</v>
       </c>
       <c r="S14">
-        <v>0.01001382550718264</v>
+        <v>0.01661489786397826</v>
       </c>
       <c r="T14">
-        <v>0.01001382550718264</v>
+        <v>0.01661489786397827</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>28.9276110634526</v>
+        <v>30.72629533333334</v>
       </c>
       <c r="H15">
-        <v>28.9276110634526</v>
+        <v>92.17888600000001</v>
       </c>
       <c r="I15">
-        <v>0.4432027927995544</v>
+        <v>0.4535361729580556</v>
       </c>
       <c r="J15">
-        <v>0.4432027927995544</v>
+        <v>0.4535361729580557</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>43.1162175125875</v>
+        <v>43.26393666666667</v>
       </c>
       <c r="N15">
-        <v>43.1162175125875</v>
+        <v>129.79181</v>
       </c>
       <c r="O15">
-        <v>0.6829220034367245</v>
+        <v>0.6678877639810287</v>
       </c>
       <c r="P15">
-        <v>0.6829220034367245</v>
+        <v>0.6678877639810287</v>
       </c>
       <c r="Q15">
-        <v>1247.249170731355</v>
+        <v>1329.340495302629</v>
       </c>
       <c r="R15">
-        <v>1247.249170731355</v>
+        <v>11964.06445772366</v>
       </c>
       <c r="S15">
-        <v>0.3026729391874232</v>
+        <v>0.3029112604414688</v>
       </c>
       <c r="T15">
-        <v>0.3026729391874232</v>
+        <v>0.3029112604414689</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>28.9276110634526</v>
+        <v>30.72629533333334</v>
       </c>
       <c r="H16">
-        <v>28.9276110634526</v>
+        <v>92.17888600000001</v>
       </c>
       <c r="I16">
-        <v>0.4432027927995544</v>
+        <v>0.4535361729580556</v>
       </c>
       <c r="J16">
-        <v>0.4432027927995544</v>
+        <v>0.4535361729580557</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.419572022909791</v>
+        <v>0.4664283333333333</v>
       </c>
       <c r="N16">
-        <v>0.419572022909791</v>
+        <v>1.399285</v>
       </c>
       <c r="O16">
-        <v>0.006645642475198613</v>
+        <v>0.007200495391983466</v>
       </c>
       <c r="P16">
-        <v>0.006645642475198613</v>
+        <v>0.007200495391983466</v>
       </c>
       <c r="Q16">
-        <v>12.13721629184046</v>
+        <v>14.33161472183444</v>
       </c>
       <c r="R16">
-        <v>12.13721629184046</v>
+        <v>128.98453249651</v>
       </c>
       <c r="S16">
-        <v>0.002945367304955369</v>
+        <v>0.003265685123482296</v>
       </c>
       <c r="T16">
-        <v>0.002945367304955369</v>
+        <v>0.003265685123482296</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>28.9276110634526</v>
+        <v>30.72629533333334</v>
       </c>
       <c r="H17">
-        <v>28.9276110634526</v>
+        <v>92.17888600000001</v>
       </c>
       <c r="I17">
-        <v>0.4432027927995544</v>
+        <v>0.4535361729580556</v>
       </c>
       <c r="J17">
-        <v>0.4432027927995544</v>
+        <v>0.4535361729580557</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.1726333845493</v>
+        <v>18.67383333333333</v>
       </c>
       <c r="N17">
-        <v>18.1726333845493</v>
+        <v>56.0215</v>
       </c>
       <c r="O17">
-        <v>0.2878381248325958</v>
+        <v>0.2882776222156329</v>
       </c>
       <c r="P17">
-        <v>0.2878381248325958</v>
+        <v>0.2882776222156329</v>
       </c>
       <c r="Q17">
-        <v>525.6908705469564</v>
+        <v>573.7777180054445</v>
       </c>
       <c r="R17">
-        <v>525.6908705469564</v>
+        <v>5163.999462049001</v>
       </c>
       <c r="S17">
-        <v>0.1275706607999932</v>
+        <v>0.1307443295291263</v>
       </c>
       <c r="T17">
-        <v>0.1275706607999932</v>
+        <v>0.1307443295291263</v>
       </c>
     </row>
   </sheetData>
